--- a/src/aegis/etls/cm_readthrough/config/categories/qa_market_volatility_regulatory_categories.xlsx
+++ b/src/aegis/etls/cm_readthrough/config/categories/qa_market_volatility_regulatory_categories.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,6 +613,70 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Non-Bank Financial Institutions (NBFIs)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Questions about competition and interaction with non-bank financial institutions including private credit funds, shadow banking, fintech lenders, and other non-bank intermediaries. Covers market share dynamics, re-intermediation trends, regulatory arbitrage concerns, and systemic risk considerations from NBFI growth.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Private credit has been taking significant market share in leveraged lending. Are you seeing any signs of re-intermediation back to banks given recent market stress?</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>How do you think about the competitive dynamics with non-bank financial institutions, particularly in areas like direct lending and middle market financing?</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Are there concerns about systemic risks building up in the non-bank financial sector, and how does that factor into your risk management approach?</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Confidence Levels</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Questions about management confidence, client sentiment, CEO willingness to deploy capital, corporate decision-making appetite, and overall market confidence levels. Covers sentiment indicators, animal spirits, willingness to transact, and the confidence gap between pipeline and execution.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>When you talk to CEOs and boards, what is their confidence level around deploying capital and pursuing strategic transactions in this environment?</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Are clients more willing to lean into deals now or are they still in wait-and-see mode? How would you characterize the overall sentiment?</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Is there a disconnect between the strong pipeline numbers you are reporting and actual client willingness to execute on those transactions?</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
